--- a/dataSheetsCSV/URS_Road/camera1.xlsx
+++ b/dataSheetsCSV/URS_Road/camera1.xlsx
@@ -571,10 +571,10 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -656,10 +656,10 @@
         <v>33</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -673,10 +673,10 @@
         <v>33</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -741,10 +741,10 @@
         <v>33</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -792,10 +792,10 @@
         <v>33</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -809,10 +809,10 @@
         <v>33</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2713,10 +2713,10 @@
         <v>33</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2730,10 +2730,10 @@
         <v>33</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2747,10 +2747,10 @@
         <v>33</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2798,10 +2798,10 @@
         <v>33</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2815,10 +2815,10 @@
         <v>33</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2883,10 +2883,10 @@
         <v>33</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2934,10 +2934,10 @@
         <v>33</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2951,10 +2951,10 @@
         <v>33</v>
       </c>
       <c r="D144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4855,10 +4855,10 @@
         <v>33</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E256" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4872,10 +4872,10 @@
         <v>33</v>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E257" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4889,10 +4889,10 @@
         <v>33</v>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E258" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4940,10 +4940,10 @@
         <v>33</v>
       </c>
       <c r="D261">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E261" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4957,10 +4957,10 @@
         <v>33</v>
       </c>
       <c r="D262">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E262" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5025,10 +5025,10 @@
         <v>33</v>
       </c>
       <c r="D266">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E266" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5076,10 +5076,10 @@
         <v>33</v>
       </c>
       <c r="D269">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E269" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5093,10 +5093,10 @@
         <v>33</v>
       </c>
       <c r="D270">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E270" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="271" spans="1:5">
